--- a/doc/03.内部設計/01.テーブル定義書.xlsx
+++ b/doc/03.内部設計/01.テーブル定義書.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\ポートフォリオ-20220702T005113Z-001\ポートフォリオ\03.内部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r_yokoyama\Desktop\AttendanceManagement\doc\03.内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E187514A-8123-4365-852E-74054C34BD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B85519-E75D-4865-A092-73DAAF3F0F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{86D7C1C3-BE64-4502-BA95-2B1E547E93EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{86D7C1C3-BE64-4502-BA95-2B1E547E93EC}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
     <sheet name="テーブル一覧" sheetId="2" r:id="rId2"/>
     <sheet name="社員" sheetId="4" r:id="rId3"/>
-    <sheet name="日報" sheetId="5" r:id="rId4"/>
+    <sheet name="管理者" sheetId="8" r:id="rId4"/>
     <sheet name="勤怠" sheetId="6" r:id="rId5"/>
-    <sheet name="E-R図" sheetId="7" r:id="rId6"/>
-    <sheet name="temp" sheetId="3" r:id="rId7"/>
+    <sheet name="日報" sheetId="5" r:id="rId6"/>
+    <sheet name="階層" sheetId="9" r:id="rId7"/>
+    <sheet name="就業時間" sheetId="10" r:id="rId8"/>
+    <sheet name="E-R図" sheetId="7" r:id="rId9"/>
+    <sheet name="temp" sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="93">
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
@@ -162,9 +165,6 @@
     <t>○</t>
   </si>
   <si>
-    <t>date_time</t>
-  </si>
-  <si>
     <t>社員ID</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
@@ -180,13 +180,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名称</t>
-    <rPh sb="0" eb="2">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワード</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -242,10 +235,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Daily</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>daily</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -265,10 +254,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>work</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>勤怠</t>
     <rPh sb="0" eb="2">
       <t>キンタイ</t>
@@ -298,12 +283,28 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>部下参照権限</t>
+    <t>char</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>社員名</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部下配属権限</t>
     <rPh sb="0" eb="2">
       <t>ブカ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>サンショウ</t>
+      <t>ハイゾク</t>
     </rPh>
     <rPh sb="4" eb="6">
       <t>ケンゲン</t>
@@ -311,10 +312,263 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>退職フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>タイショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録日</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入社日</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退職日</t>
+    <rPh sb="0" eb="2">
+      <t>タイショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン情報の保持</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>retirement_authority</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>char</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>0,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updated_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hire_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>retirement_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>remember_token</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩時間</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績時間</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残業時間</t>
+    <rPh sb="0" eb="2">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rest_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>achievement_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>over_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>works</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下位ID</t>
+  </si>
+  <si>
+    <t>lower_id</t>
+  </si>
+  <si>
+    <t>上位ID</t>
+  </si>
+  <si>
+    <t>high_id</t>
+  </si>
+  <si>
+    <t>restraint_start_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>restraint_closing_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>restraint_total_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>階層</t>
+    <rPh sb="0" eb="2">
+      <t>カイソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>就業時間</t>
+    <rPh sb="0" eb="2">
+      <t>シュウギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admins</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日報</t>
+    <rPh sb="0" eb="2">
+      <t>ニッポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>daily</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hierarchy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横山</t>
+    <rPh sb="0" eb="2">
+      <t>ヨコヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>始業時間</t>
+    <rPh sb="0" eb="2">
+      <t>シギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終業時間</t>
+    <rPh sb="0" eb="2">
+      <t>シュウギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>就業時間</t>
+    <rPh sb="0" eb="2">
+      <t>シュウギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -390,7 +644,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -546,49 +800,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -610,7 +821,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -653,15 +864,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -669,6 +871,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -697,7 +914,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -718,6 +935,59 @@
         <a:xfrm>
           <a:off x="1685924" y="600075"/>
           <a:ext cx="2752725" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="385D8A"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" rtl="0" hangingPunct="0">
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1200" kern="1200">
+            <a:latin typeface="Times New Roman" pitchFamily="18"/>
+            <a:ea typeface="ＭＳ Ｐ明朝" pitchFamily="2"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2705100" cy="2171700"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{521A9158-D364-46D2-AFFC-F3A4B1D155AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2162176" y="609600"/>
+          <a:ext cx="2705100" cy="2171700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -750,18 +1020,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2714625" cy="1943100"/>
+    <xdr:ext cx="2705100" cy="5086350"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="直線コネクタ 2">
+        <xdr:cNvPr id="12" name="直線コネクタ 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{521A9158-D364-46D2-AFFC-F3A4B1D155AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CAD5A3A-B86D-4F11-A487-2ADFE37407EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -769,8 +1039,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1685925" y="609600"/>
-          <a:ext cx="2714625" cy="1943100"/>
+          <a:off x="2171700" y="619125"/>
+          <a:ext cx="2705100" cy="5086350"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -803,45 +1073,42 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="コネクタ: 曲線 7">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="円弧 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51CC9F07-5701-A01E-DBD8-A8D52B70CFEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22A97EB7-33EF-31B4-7D8E-D8D7829F0845}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4205288" y="1481138"/>
-          <a:ext cx="1800224" cy="19049"/>
+        <a:xfrm>
+          <a:off x="5210175" y="828676"/>
+          <a:ext cx="1200150" cy="1971674"/>
         </a:xfrm>
-        <a:prstGeom prst="curvedConnector5">
+        <a:prstGeom prst="arc">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 1058"/>
-            <a:gd name="adj2" fmla="val 2950150"/>
-            <a:gd name="adj3" fmla="val 99471"/>
+            <a:gd name="adj1" fmla="val 15924008"/>
+            <a:gd name="adj2" fmla="val 5612180"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
-          <a:headEnd type="triangle" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -858,50 +1125,55 @@
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85728</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>180977</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="コネクタ: 曲線 21">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="円弧 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F419AB89-F261-43C4-8D84-36008D5C79EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9860F076-A295-42BB-959D-4BF92CA1D2C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4214814" y="1709740"/>
-          <a:ext cx="1800224" cy="19049"/>
+        <a:xfrm>
+          <a:off x="5219700" y="1066800"/>
+          <a:ext cx="1200150" cy="1971674"/>
         </a:xfrm>
-        <a:prstGeom prst="curvedConnector5">
+        <a:prstGeom prst="arc">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 1058"/>
-            <a:gd name="adj2" fmla="val 3500178"/>
-            <a:gd name="adj3" fmla="val 99471"/>
+            <a:gd name="adj1" fmla="val 15924008"/>
+            <a:gd name="adj2" fmla="val 5612180"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
-          <a:headEnd type="triangle" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -918,7 +1190,145 @@
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600071</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="円弧 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{022CBA40-3511-498D-8279-F3CDA2305025}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="409575" y="609597"/>
+          <a:ext cx="1562096" cy="3371852"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 15923900"/>
+            <a:gd name="adj2" fmla="val 5612180"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657221</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="円弧 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A818ECA-EFBD-45C7-87B1-00CE6BAEA59D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="466725" y="1304925"/>
+          <a:ext cx="1562096" cy="2886075"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 15950009"/>
+            <a:gd name="adj2" fmla="val 5612180"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1249,13 +1659,221 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49D2B61-378C-460E-9B4D-2702A9EA820A}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1E2078-E60C-48AC-BE8A-4225D73E8E95}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1263,7 +1881,7 @@
     <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1297,8 +1915,12 @@
       <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="20">
+        <v>44745</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -1306,13 +1928,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="D3" s="21">
+        <v>44748</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -1320,37 +1946,71 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="D4" s="21">
+        <v>44753</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="21">
+        <v>44753</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="21">
+        <v>44753</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="21">
+        <v>44766</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -1428,7 +2088,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1473,22 +2133,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3">
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -1497,22 +2157,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1">
         <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -1521,22 +2181,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E4" s="1">
         <v>256</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -1545,22 +2205,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -1569,13 +2229,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E6" s="13">
         <v>1</v>
@@ -1584,20 +2244,401 @@
         <v>21</v>
       </c>
       <c r="G6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2420632-CCB0-4B9C-B1FD-5C467F1562D5}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1">
         <v>32</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1">
+        <v>256</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -1650,6 +2691,308 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675BDF01-786D-49B1-9D6A-327BFBCFE9E7}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
@@ -1706,14 +3049,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854CC99F-1515-4B5C-A56D-ED17728305C8}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1758,22 +3101,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3">
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -1782,22 +3125,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="3">
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -1806,22 +3149,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -1830,10 +3173,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>20</v>
@@ -1842,21 +3185,331 @@
         <v>1024</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3534085C-85C6-4F0C-ABF3-99025E54E1AC}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="17">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="17">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -1949,50 +3602,28 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675BDF01-786D-49B1-9D6A-327BFBCFE9E7}">
-  <dimension ref="A1:H17"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A43CBA6-1963-4BEC-B5D7-D80EC30DD3BA}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="10" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2026,22 +3657,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3">
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -2050,22 +3681,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="3">
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -2074,22 +3705,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -2098,22 +3729,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -2122,43 +3753,71 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -2221,349 +3880,220 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0163FD23-A176-4938-96B3-E049C401EF87}">
-  <dimension ref="B1:H15"/>
+  <dimension ref="C1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="17" t="s">
+    <row r="1" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="14" t="s">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="16" t="s">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G9" s="18" t="s">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="G10" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="G11" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="G12" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="G13" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G14" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H22" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="H23" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="H24" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="H25" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="H26" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="H27" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="H28" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="H29" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49D2B61-378C-460E-9B4D-2702A9EA820A}">
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>